--- a/Article Category Data/Categories.xlsx
+++ b/Article Category Data/Categories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Hadiya\fyp\khulasa\Article Category Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AEC07F-12CC-4A0B-80BC-902277480220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F6BFF-F4E0-4B9B-B023-DF6667DA6F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="603">
   <si>
     <t>title</t>
   </si>
@@ -650,24 +650,6 @@
     <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698429</t>
   </si>
   <si>
-    <t>کراچی ، نیو چالی جنریٹر مارکیٹ کی عمارت میں آگ لگ گئی ، ایک شخص جاں بحق،3زخمی</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698417</t>
-  </si>
-  <si>
-    <t>امریکی ادارے کی پاکستان سمیت بدحال معیشتوں کے قرض معاف کرنے کی سفارش</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698415</t>
-  </si>
-  <si>
-    <t>سوئی ناردرن گیس نے بلوں میں اضافی رقم شامل کر دی</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698414</t>
-  </si>
-  <si>
     <t>جعلی پرچوں ، قائدین کی گرفتاریوں سے پی ٹی آئی کو کچلنا لندن پلان کا حصہ : عمران </t>
   </si>
   <si>
@@ -788,84 +770,6 @@
     <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698367</t>
   </si>
   <si>
-    <t>اپریل سے اپریل تک</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698362</t>
-  </si>
-  <si>
-    <t>پاک فوج اور عوام</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698360</t>
-  </si>
-  <si>
-    <t>آخرکاریہ کالاقانون ختم ہوا </t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698359</t>
-  </si>
-  <si>
-    <t>غزوہ بدر ، پیغمبر ِ انقلاب اور ذوالفقارِ مولا علی ؓ(1)</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698358</t>
-  </si>
-  <si>
-    <t>پارلیمنٹ اور سپریم کورٹ آمنے سامنے</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698357</t>
-  </si>
-  <si>
-    <t>حضرت اقبال کا فلسفہ خودی سے فری آٹاتک کا سفر!!!</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698352</t>
-  </si>
-  <si>
-    <t>یتیم بچیوں کی تعلیم وتربیت اور کفالت کا مثالی ادارہ </t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698351</t>
-  </si>
-  <si>
-    <t>شٹرآئی لینڈ</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698350</t>
-  </si>
-  <si>
-    <t>بکالم کا نام انسان۔</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698349</t>
-  </si>
-  <si>
-    <t> حق وباطل کا پہلا معرکہ</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698348</t>
-  </si>
-  <si>
-    <t>فضائل قرآن(۵)</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698368</t>
-  </si>
-  <si>
-    <t>اتحاد ایمان نظم و ضبط</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698369</t>
-  </si>
-  <si>
-    <t>بالِ جبریل</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/08-Apr-2023/1698370</t>
-  </si>
-  <si>
     <t>کراچی کے علاقے نیو چالی کی جنریٹر مارکیٹ  میں عمارت میں آگ لگ گئی</t>
   </si>
   <si>
@@ -1355,54 +1259,18 @@
     <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698218</t>
   </si>
   <si>
-    <t>عالمی انجمن خدام الدین :غزوہ بدر، سیرت عائشہ ؓوحضرت علی المرتضیٰ ؓ سیمینارآج </t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698217</t>
-  </si>
-  <si>
     <t>عمران خان کیخلاف اسلام آباد میں ایک اور مقدمہ درج.</t>
   </si>
   <si>
     <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698311</t>
   </si>
   <si>
-    <t>زندگی میں ترقی، کامیابی کے حصول کیلئے محنت ناگزیر ہے، عارف علوی</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698239</t>
-  </si>
-  <si>
     <t>گورنر سے سی ای اویونیورسل گیس ڈسٹری بیوشن کمپنی غیاث عبداللہ کی ملاقات</t>
   </si>
   <si>
     <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698238</t>
   </si>
   <si>
-    <t>”تخت یا تختہ“ والی فضا </t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698210</t>
-  </si>
-  <si>
-    <t>غریب مر گیا۔۔۔</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698209</t>
-  </si>
-  <si>
-    <t>امریکی جریدے کا تجارتی دھوکہ </t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698208</t>
-  </si>
-  <si>
-    <t>پیارے نبی صلی اللہ علیہ واٰلہ وسلّم کی پیاری پیاری باتیں!!!!!</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698207</t>
-  </si>
-  <si>
     <t>مسجد اقصیٰ پر اسرائیلی پولیس کا حملہ</t>
   </si>
   <si>
@@ -1421,36 +1289,6 @@
     <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698300</t>
   </si>
   <si>
-    <t>فضائل قرآن (۴)</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698301</t>
-  </si>
-  <si>
-    <t>پاکستان</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698299</t>
-  </si>
-  <si>
-    <t>فرمان قائد</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698252</t>
-  </si>
-  <si>
-    <t>سرکشی</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698298</t>
-  </si>
-  <si>
-    <t>فرمودہ اقبال</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/07-Apr-2023/1698251</t>
-  </si>
-  <si>
     <t>کیا ہم دہشتگرد ہیں؟ معصوم شامی بچے کا مسلم دنیا کیلئے دل دہلا دینے والا ویڈیو پیغام</t>
   </si>
   <si>
@@ -1703,30 +1541,6 @@
     <t>https://www.nawaiwaqt.com.pk/06-Apr-2023/1698075</t>
   </si>
   <si>
-    <t>نماز کی تاکید</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/06-Apr-2023/1698097</t>
-  </si>
-  <si>
-    <t>عظمت</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/06-Apr-2023/1698077</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/06-Apr-2023/1697991</t>
-  </si>
-  <si>
-    <t>مسلماں</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/06-Apr-2023/1698076</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/06-Apr-2023/1697990</t>
-  </si>
-  <si>
     <t>پاکستان اسپورٹس بورڈ: مختلف کھیلوں کی فیسوں میں اضافے کی تجاویز</t>
   </si>
   <si>
@@ -1901,18 +1715,6 @@
     <t>https://www.nawaiwaqt.com.pk/04-Apr-2023/1697629</t>
   </si>
   <si>
-    <t>جب انسان قدر نہیں کرتا تو رب نعمتیں چھین لیتا ہے: ثناء نواز</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/04-Apr-2023/1697628</t>
-  </si>
-  <si>
-    <t>بھٹو شہیدکے مشن کی کامیابی کیلئے کسی قربانی سے دریغ نہیں کیاجائے گا:شازیہ مری</t>
-  </si>
-  <si>
-    <t>https://www.nawaiwaqt.com.pk/04-Apr-2023/1697625</t>
-  </si>
-  <si>
     <t>کرائم پٹرول سے دلی کرائم تک، حقیقت پر مبنی کرائم شوز کی لت کیوں لگتی ہے؟</t>
   </si>
   <si>
@@ -2034,6 +1836,12 @@
   </si>
   <si>
     <t>health?</t>
+  </si>
+  <si>
+    <t>world/entertainment/other</t>
+  </si>
+  <si>
+    <t>other/entertainment/sports</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +1883,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2085,18 +1893,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2125,7 +1921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2134,8 +1930,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2451,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D328"/>
+  <dimension ref="A1:D294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D328" sqref="D328"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2552,7 +2346,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>662</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2634,7 +2428,7 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2649,7 +2443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -2660,7 +2454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -2670,8 +2464,11 @@
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
@@ -2682,7 +2479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -2693,7 +2490,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2704,7 +2501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2715,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2726,7 +2523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -2737,7 +2534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
@@ -2748,7 +2545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -2759,7 +2556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
@@ -2770,7 +2567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
@@ -2781,7 +2578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
@@ -2791,8 +2588,11 @@
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
@@ -2803,7 +2603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
@@ -2813,8 +2613,11 @@
       <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>69</v>
       </c>
@@ -2825,7 +2628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>71</v>
       </c>
@@ -2836,7 +2639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>73</v>
       </c>
@@ -2847,7 +2650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
@@ -2858,7 +2661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>77</v>
       </c>
@@ -2869,7 +2672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
@@ -2880,7 +2683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>81</v>
       </c>
@@ -2891,7 +2694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>83</v>
       </c>
@@ -2902,7 +2705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
@@ -2913,7 +2716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>87</v>
       </c>
@@ -2924,7 +2727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>89</v>
       </c>
@@ -2935,7 +2738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -2946,7 +2749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
@@ -2956,8 +2759,11 @@
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -2968,7 +2774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>97</v>
       </c>
@@ -2979,7 +2785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>99</v>
       </c>
@@ -2990,7 +2796,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>102</v>
       </c>
@@ -3173,11 +2979,11 @@
       <c r="B64" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>663</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3245,7 +3051,7 @@
       <c r="B70" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3457,7 +3263,7 @@
       <c r="B89" t="s">
         <v>186</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3523,7 +3329,7 @@
       <c r="A95" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C95" t="s">
@@ -3534,7 +3340,7 @@
       <c r="A96" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>200</v>
       </c>
       <c r="C96" t="s">
@@ -3545,7 +3351,7 @@
       <c r="A97" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C97" t="s">
@@ -3556,7 +3362,7 @@
       <c r="A98" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>204</v>
       </c>
       <c r="C98" t="s">
@@ -3567,7 +3373,7 @@
       <c r="A99" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>206</v>
       </c>
       <c r="C99" t="s">
@@ -3578,7 +3384,7 @@
       <c r="A100" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C100" t="s">
@@ -3589,51 +3395,51 @@
       <c r="A101" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>5</v>
+      <c r="C101" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C104" s="8" t="s">
-        <v>14</v>
+      <c r="C104" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C105" t="s">
@@ -3644,249 +3450,252 @@
       <c r="A106" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C107" t="s">
-        <v>60</v>
+      <c r="C107" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>5</v>
+      <c r="C110" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>236</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>240</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C118" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" t="s">
         <v>246</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" t="s">
         <v>248</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" t="s">
         <v>250</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" t="s">
         <v>252</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" t="s">
         <v>254</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" t="s">
         <v>256</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" t="s">
         <v>258</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" t="s">
         <v>260</v>
       </c>
-      <c r="C126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" t="s">
         <v>262</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" t="s">
         <v>264</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -3897,29 +3706,29 @@
       <c r="A129" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" t="s">
         <v>266</v>
       </c>
-      <c r="C129" t="s">
-        <v>60</v>
+      <c r="C129" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" t="s">
         <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" t="s">
         <v>270</v>
       </c>
       <c r="C131" t="s">
@@ -3930,33 +3739,33 @@
       <c r="A132" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" t="s">
         <v>272</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>5</v>
+      <c r="C132" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" t="s">
         <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" t="s">
         <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3978,7 +3787,7 @@
         <v>280</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3988,8 +3797,11 @@
       <c r="B137" t="s">
         <v>282</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>5</v>
+      <c r="C137" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3999,7 +3811,7 @@
       <c r="B138" t="s">
         <v>284</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4011,7 +3823,7 @@
         <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4021,8 +3833,8 @@
       <c r="B140" t="s">
         <v>288</v>
       </c>
-      <c r="C140" t="s">
-        <v>5</v>
+      <c r="C140" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4043,8 +3855,8 @@
       <c r="B142" t="s">
         <v>292</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>60</v>
+      <c r="C142" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4054,11 +3866,11 @@
       <c r="B143" t="s">
         <v>294</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>5</v>
+      <c r="C143" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D143" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4069,7 +3881,10 @@
         <v>296</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="D144" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4079,7 +3894,7 @@
       <c r="B145" t="s">
         <v>298</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4091,7 +3906,7 @@
         <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4102,7 +3917,7 @@
         <v>302</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4113,7 +3928,7 @@
         <v>304</v>
       </c>
       <c r="C148" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4124,7 +3939,7 @@
         <v>306</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4134,8 +3949,11 @@
       <c r="B150" t="s">
         <v>308</v>
       </c>
-      <c r="C150" t="s">
-        <v>5</v>
+      <c r="C150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4145,8 +3963,11 @@
       <c r="B151" t="s">
         <v>310</v>
       </c>
-      <c r="C151" t="s">
-        <v>5</v>
+      <c r="C151" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4157,7 +3978,7 @@
         <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,11 +3988,8 @@
       <c r="B153" t="s">
         <v>314</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" t="s">
-        <v>53</v>
+      <c r="C153" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4181,16 +3999,16 @@
       <c r="B154" t="s">
         <v>316</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>5</v>
+      <c r="C154" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B155" t="s">
         <v>317</v>
-      </c>
-      <c r="B155" t="s">
-        <v>318</v>
       </c>
       <c r="C155" t="s">
         <v>21</v>
@@ -4198,82 +4016,79 @@
     </row>
     <row r="156" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" t="s">
         <v>319</v>
       </c>
-      <c r="B156" t="s">
-        <v>320</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>53</v>
+      <c r="C156" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157" t="s">
         <v>321</v>
       </c>
-      <c r="B157" t="s">
-        <v>322</v>
-      </c>
       <c r="C157" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B158" t="s">
         <v>323</v>
       </c>
-      <c r="B158" t="s">
-        <v>324</v>
-      </c>
       <c r="C158" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159" t="s">
         <v>325</v>
       </c>
-      <c r="B159" t="s">
-        <v>326</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="C159" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" t="s">
         <v>327</v>
       </c>
-      <c r="B160" t="s">
-        <v>328</v>
-      </c>
       <c r="C160" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D160" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B161" t="s">
         <v>329</v>
       </c>
-      <c r="B161" t="s">
-        <v>330</v>
-      </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" t="s">
         <v>331</v>
-      </c>
-      <c r="B162" t="s">
-        <v>332</v>
       </c>
       <c r="C162" t="s">
         <v>53</v>
@@ -4281,107 +4096,104 @@
     </row>
     <row r="163" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163" t="s">
         <v>333</v>
       </c>
-      <c r="B163" t="s">
-        <v>334</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="C163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B164" t="s">
         <v>335</v>
       </c>
-      <c r="B164" t="s">
-        <v>336</v>
-      </c>
       <c r="C164" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B165" t="s">
         <v>337</v>
       </c>
-      <c r="B165" t="s">
-        <v>338</v>
-      </c>
       <c r="C165" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166" t="s">
         <v>339</v>
       </c>
-      <c r="B166" t="s">
-        <v>340</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D166" t="s">
-        <v>664</v>
+      <c r="C166" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167" t="s">
         <v>341</v>
       </c>
-      <c r="B167" t="s">
-        <v>342</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D167" t="s">
-        <v>106</v>
+      <c r="C167" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B168" t="s">
         <v>343</v>
       </c>
-      <c r="B168" t="s">
-        <v>344</v>
-      </c>
       <c r="C168" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" t="s">
         <v>345</v>
       </c>
-      <c r="B169" t="s">
-        <v>346</v>
-      </c>
       <c r="C169" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" t="s">
         <v>347</v>
       </c>
-      <c r="B170" t="s">
-        <v>348</v>
-      </c>
       <c r="C170" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>177</v>
+        <v>348</v>
       </c>
       <c r="B171" t="s">
         <v>349</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4424,8 +4236,8 @@
       <c r="B175" t="s">
         <v>357</v>
       </c>
-      <c r="C175" t="s">
-        <v>21</v>
+      <c r="C175" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4439,7 +4251,7 @@
         <v>5</v>
       </c>
       <c r="D176" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4449,8 +4261,11 @@
       <c r="B177" t="s">
         <v>361</v>
       </c>
-      <c r="C177" t="s">
-        <v>21</v>
+      <c r="C177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4461,7 +4276,7 @@
         <v>363</v>
       </c>
       <c r="C178" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4471,11 +4286,8 @@
       <c r="B179" t="s">
         <v>365</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D179" t="s">
-        <v>53</v>
+      <c r="C179" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4486,7 +4298,7 @@
         <v>367</v>
       </c>
       <c r="C180" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4496,8 +4308,11 @@
       <c r="B181" t="s">
         <v>369</v>
       </c>
-      <c r="C181" t="s">
-        <v>53</v>
+      <c r="C181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4507,8 +4322,8 @@
       <c r="B182" t="s">
         <v>371</v>
       </c>
-      <c r="C182" t="s">
-        <v>53</v>
+      <c r="C182" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4519,7 +4334,7 @@
         <v>373</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4541,7 +4356,7 @@
         <v>377</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4552,7 +4367,7 @@
         <v>379</v>
       </c>
       <c r="C186" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4563,7 +4378,7 @@
         <v>381</v>
       </c>
       <c r="C187" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4574,7 +4389,7 @@
         <v>383</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4585,158 +4400,161 @@
         <v>385</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="7" t="s">
         <v>387</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>5</v>
+      <c r="C191" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D192" t="s">
-        <v>106</v>
+      <c r="C192" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D193" t="s">
-        <v>106</v>
+      <c r="C193" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="7" t="s">
         <v>395</v>
       </c>
       <c r="C194" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C195" t="s">
-        <v>101</v>
+      <c r="C195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="7" t="s">
         <v>399</v>
       </c>
       <c r="C196" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="7" t="s">
         <v>401</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D197" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C198" s="8" t="s">
-        <v>5</v>
+      <c r="C198" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D198" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C199" t="s">
-        <v>53</v>
+      <c r="C199" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="7" t="s">
         <v>407</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="7" t="s">
         <v>409</v>
       </c>
       <c r="C201" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4744,32 +4562,32 @@
       <c r="A203" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="7" t="s">
         <v>413</v>
       </c>
       <c r="C203" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="7" t="s">
         <v>415</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4777,208 +4595,214 @@
       <c r="A206" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" t="s">
         <v>419</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" t="s">
         <v>421</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" t="s">
         <v>423</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" t="s">
         <v>425</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" t="s">
         <v>427</v>
       </c>
       <c r="C210" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" t="s">
         <v>429</v>
       </c>
       <c r="C211" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" t="s">
         <v>431</v>
       </c>
       <c r="C212" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" t="s">
         <v>433</v>
       </c>
-      <c r="C213" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C213" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D213" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" t="s">
         <v>435</v>
       </c>
-      <c r="C214" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C214" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" t="s">
         <v>437</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" t="s">
         <v>439</v>
       </c>
-      <c r="C216" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C216" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" t="s">
         <v>441</v>
       </c>
-      <c r="C217" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C217" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" t="s">
         <v>443</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" t="s">
         <v>445</v>
       </c>
       <c r="C219" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" t="s">
         <v>447</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" t="s">
         <v>449</v>
       </c>
       <c r="C221" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" t="s">
         <v>451</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" t="s">
         <v>453</v>
       </c>
       <c r="C223" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" t="s">
         <v>455</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4986,88 +4810,88 @@
       <c r="A225" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" t="s">
         <v>457</v>
       </c>
-      <c r="C225" t="s">
-        <v>60</v>
+      <c r="C225" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" t="s">
         <v>459</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" t="s">
         <v>461</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" t="s">
         <v>463</v>
       </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" t="s">
         <v>465</v>
       </c>
-      <c r="C229" t="s">
-        <v>5</v>
+      <c r="C229" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" t="s">
         <v>467</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" t="s">
         <v>469</v>
       </c>
       <c r="C231" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" t="s">
         <v>471</v>
       </c>
       <c r="C232" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5078,7 +4902,7 @@
         <v>473</v>
       </c>
       <c r="C233" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5089,7 +4913,7 @@
         <v>475</v>
       </c>
       <c r="C234" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5099,8 +4923,11 @@
       <c r="B235" t="s">
         <v>477</v>
       </c>
-      <c r="C235" t="s">
-        <v>60</v>
+      <c r="C235" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5110,8 +4937,11 @@
       <c r="B236" t="s">
         <v>479</v>
       </c>
-      <c r="C236" t="s">
-        <v>60</v>
+      <c r="C236" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D236" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5121,8 +4951,11 @@
       <c r="B237" t="s">
         <v>481</v>
       </c>
-      <c r="C237" t="s">
-        <v>53</v>
+      <c r="C237" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5133,7 +4966,7 @@
         <v>483</v>
       </c>
       <c r="C238" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5143,8 +4976,8 @@
       <c r="B239" t="s">
         <v>485</v>
       </c>
-      <c r="C239" t="s">
-        <v>53</v>
+      <c r="C239" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5155,42 +4988,39 @@
         <v>487</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D240" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>5</v>
+      <c r="C241" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="7" t="s">
         <v>491</v>
       </c>
       <c r="C242" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5198,47 +5028,44 @@
       <c r="A244" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="7" t="s">
         <v>495</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D244" t="s">
-        <v>664</v>
+        <v>53</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="7" t="s">
         <v>497</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="7" t="s">
         <v>499</v>
       </c>
       <c r="C246" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="C247" t="s">
-        <v>60</v>
+      <c r="C247" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5248,8 +5075,11 @@
       <c r="B248" t="s">
         <v>503</v>
       </c>
-      <c r="C248" t="s">
-        <v>14</v>
+      <c r="C248" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5270,8 +5100,11 @@
       <c r="B250" t="s">
         <v>507</v>
       </c>
-      <c r="C250" t="s">
-        <v>44</v>
+      <c r="C250" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5281,8 +5114,8 @@
       <c r="B251" t="s">
         <v>509</v>
       </c>
-      <c r="C251" s="8" t="s">
-        <v>5</v>
+      <c r="C251" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5292,8 +5125,8 @@
       <c r="B252" t="s">
         <v>511</v>
       </c>
-      <c r="C252" s="8" t="s">
-        <v>5</v>
+      <c r="C252" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5303,8 +5136,11 @@
       <c r="B253" t="s">
         <v>513</v>
       </c>
-      <c r="C253" t="s">
-        <v>44</v>
+      <c r="C253" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D253" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5315,7 +5151,7 @@
         <v>515</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5326,7 +5162,7 @@
         <v>517</v>
       </c>
       <c r="C255" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5336,8 +5172,8 @@
       <c r="B256" t="s">
         <v>519</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>21</v>
+      <c r="C256" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5359,7 +5195,7 @@
         <v>523</v>
       </c>
       <c r="C258" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5369,7 +5205,10 @@
       <c r="B259" t="s">
         <v>525</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D259" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5381,7 +5220,7 @@
         <v>527</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5392,7 +5231,7 @@
         <v>529</v>
       </c>
       <c r="C261" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5403,10 +5242,10 @@
         <v>531</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D262" t="s">
-        <v>106</v>
+        <v>599</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5416,11 +5255,8 @@
       <c r="B263" t="s">
         <v>533</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D263" t="s">
-        <v>44</v>
+      <c r="C263" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5430,11 +5266,8 @@
       <c r="B264" t="s">
         <v>535</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D264" t="s">
-        <v>44</v>
+      <c r="C264" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5444,8 +5277,11 @@
       <c r="B265" t="s">
         <v>537</v>
       </c>
-      <c r="C265" t="s">
-        <v>14</v>
+      <c r="C265" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D265" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5455,7 +5291,7 @@
       <c r="B266" t="s">
         <v>539</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5466,26 +5302,26 @@
       <c r="B267" t="s">
         <v>541</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>5</v>
+      <c r="C267" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="B268" t="s">
         <v>543</v>
       </c>
-      <c r="C268" t="s">
-        <v>21</v>
+      <c r="C268" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" t="s">
         <v>545</v>
       </c>
       <c r="C269" t="s">
@@ -5496,168 +5332,171 @@
       <c r="A270" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" t="s">
         <v>547</v>
       </c>
-      <c r="C270" t="s">
-        <v>5</v>
+      <c r="C270" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="B271" t="s">
         <v>549</v>
       </c>
       <c r="C271" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="B272" t="s">
         <v>551</v>
       </c>
       <c r="C272" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="B273" t="s">
         <v>553</v>
       </c>
       <c r="C273" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B274" t="s">
         <v>555</v>
       </c>
-      <c r="C274" t="s">
-        <v>14</v>
+      <c r="C274" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D274" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="C275" t="s">
-        <v>5</v>
+      <c r="C275" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D275" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="B276" s="8" t="s">
         <v>559</v>
       </c>
       <c r="C276" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B277" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C277" t="s">
+      <c r="B277" t="s">
+        <v>561</v>
+      </c>
+      <c r="C277" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B278" s="9" t="s">
         <v>562</v>
       </c>
+      <c r="B278" t="s">
+        <v>563</v>
+      </c>
       <c r="C278" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="C279" t="s">
-        <v>5</v>
+        <v>564</v>
+      </c>
+      <c r="B279" t="s">
+        <v>565</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D279" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B280" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D280" t="s">
-        <v>53</v>
+        <v>566</v>
+      </c>
+      <c r="B280" t="s">
+        <v>567</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="B281" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
+      </c>
+      <c r="B281" t="s">
+        <v>569</v>
       </c>
       <c r="C281" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="B282" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D282" t="s">
-        <v>101</v>
+        <v>570</v>
+      </c>
+      <c r="B282" t="s">
+        <v>571</v>
+      </c>
+      <c r="C282" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B283" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="C283" t="s">
-        <v>53</v>
+        <v>572</v>
+      </c>
+      <c r="B283" t="s">
+        <v>573</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="B284" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>575</v>
       </c>
       <c r="C284" t="s">
         <v>106</v>
@@ -5665,35 +5504,32 @@
     </row>
     <row r="285" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B285" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D285" t="s">
-        <v>106</v>
+        <v>576</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="B286" t="s">
-        <v>577</v>
-      </c>
-      <c r="C286" t="s">
-        <v>14</v>
+        <v>578</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="B287" t="s">
-        <v>579</v>
+        <v>580</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>581</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5701,468 +5537,85 @@
     </row>
     <row r="288" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="B288" t="s">
-        <v>581</v>
+        <v>582</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>583</v>
       </c>
       <c r="C288" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B289" t="s">
-        <v>583</v>
-      </c>
-      <c r="C289" t="s">
-        <v>60</v>
+        <v>585</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B290" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C290" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B291" t="s">
-        <v>587</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D291" t="s">
-        <v>106</v>
+        <v>589</v>
+      </c>
+      <c r="C291" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B292" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C292" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B293" t="s">
-        <v>591</v>
-      </c>
-      <c r="C293" t="s">
+        <v>593</v>
+      </c>
+      <c r="C293" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B294" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D294" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="B295" t="s">
-        <v>595</v>
-      </c>
-      <c r="C295" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="B296" t="s">
-        <v>597</v>
-      </c>
-      <c r="C296" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="B297" t="s">
-        <v>599</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D297" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B298" t="s">
-        <v>601</v>
-      </c>
-      <c r="C298" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B299" t="s">
-        <v>603</v>
-      </c>
-      <c r="C299" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B300" t="s">
-        <v>605</v>
-      </c>
-      <c r="C300" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B301" t="s">
-        <v>607</v>
-      </c>
-      <c r="C301" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="B302" t="s">
-        <v>609</v>
-      </c>
-      <c r="C302" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="B303" t="s">
-        <v>611</v>
-      </c>
-      <c r="C303" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B304" t="s">
-        <v>613</v>
-      </c>
-      <c r="C304" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="B305" t="s">
-        <v>615</v>
-      </c>
-      <c r="C305" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="B306" t="s">
-        <v>617</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D306" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="B307" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C308" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="B309" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="B310" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="C310" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B311" t="s">
-        <v>627</v>
-      </c>
-      <c r="C311" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="B312" t="s">
-        <v>629</v>
-      </c>
-      <c r="C312" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="B313" t="s">
-        <v>631</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D313" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B314" t="s">
-        <v>633</v>
-      </c>
-      <c r="C314" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B315" t="s">
-        <v>635</v>
-      </c>
-      <c r="C315" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="B316" t="s">
-        <v>637</v>
-      </c>
-      <c r="C316" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B317" t="s">
-        <v>639</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="B318" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="C318" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="B319" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="C319" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B320" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B321" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="C321" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C322" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="B323" t="s">
-        <v>651</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B324" t="s">
-        <v>653</v>
-      </c>
-      <c r="C324" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="B325" t="s">
-        <v>655</v>
-      </c>
-      <c r="C325" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="B326" t="s">
-        <v>657</v>
-      </c>
-      <c r="C326" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="B327" t="s">
-        <v>659</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B328" t="s">
-        <v>661</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Article Category Data/Categories.xlsx
+++ b/Article Category Data/Categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Hadiya\fyp\khulasa\Article Category Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F6BFF-F4E0-4B9B-B023-DF6667DA6F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAF96AA-4EE9-49A9-A2E9-5BB2B6B4FB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="604">
   <si>
     <t>title</t>
   </si>
@@ -1842,6 +1842,9 @@
   </si>
   <si>
     <t>other/entertainment/sports</t>
+  </si>
+  <si>
+    <t>health? Politics?</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1886,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1902,12 +1905,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1921,7 +1918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1929,7 +1926,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2247,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3329,7 +3325,7 @@
       <c r="A95" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" t="s">
         <v>198</v>
       </c>
       <c r="C95" t="s">
@@ -3340,7 +3336,7 @@
       <c r="A96" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" t="s">
         <v>200</v>
       </c>
       <c r="C96" t="s">
@@ -3351,7 +3347,7 @@
       <c r="A97" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" t="s">
         <v>202</v>
       </c>
       <c r="C97" t="s">
@@ -3362,7 +3358,7 @@
       <c r="A98" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" t="s">
         <v>204</v>
       </c>
       <c r="C98" t="s">
@@ -3373,7 +3369,7 @@
       <c r="A99" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" t="s">
         <v>206</v>
       </c>
       <c r="C99" t="s">
@@ -3384,7 +3380,7 @@
       <c r="A100" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" t="s">
         <v>208</v>
       </c>
       <c r="C100" t="s">
@@ -3395,7 +3391,7 @@
       <c r="A101" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" t="s">
         <v>210</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -3406,7 +3402,7 @@
       <c r="A102" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" t="s">
         <v>212</v>
       </c>
       <c r="C102" t="s">
@@ -3417,7 +3413,7 @@
       <c r="A103" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" t="s">
         <v>214</v>
       </c>
       <c r="C103" t="s">
@@ -3428,7 +3424,7 @@
       <c r="A104" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" t="s">
         <v>216</v>
       </c>
       <c r="C104" t="s">
@@ -3439,7 +3435,7 @@
       <c r="A105" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" t="s">
         <v>218</v>
       </c>
       <c r="C105" t="s">
@@ -3450,7 +3446,7 @@
       <c r="A106" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" t="s">
         <v>220</v>
       </c>
       <c r="C106" t="s">
@@ -3461,7 +3457,7 @@
       <c r="A107" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" t="s">
         <v>222</v>
       </c>
       <c r="C107" s="6" t="s">
@@ -3472,7 +3468,7 @@
       <c r="A108" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" t="s">
         <v>224</v>
       </c>
       <c r="C108" t="s">
@@ -3483,7 +3479,7 @@
       <c r="A109" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" t="s">
         <v>226</v>
       </c>
       <c r="C109" t="s">
@@ -3494,7 +3490,7 @@
       <c r="A110" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" t="s">
         <v>228</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -3505,7 +3501,7 @@
       <c r="A111" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" t="s">
         <v>230</v>
       </c>
       <c r="C111" t="s">
@@ -3516,7 +3512,7 @@
       <c r="A112" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" t="s">
         <v>232</v>
       </c>
       <c r="C112" t="s">
@@ -3527,7 +3523,7 @@
       <c r="A113" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" t="s">
         <v>234</v>
       </c>
       <c r="C113" t="s">
@@ -3538,7 +3534,7 @@
       <c r="A114" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" t="s">
         <v>236</v>
       </c>
       <c r="C114" t="s">
@@ -3549,7 +3545,7 @@
       <c r="A115" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" t="s">
         <v>238</v>
       </c>
       <c r="C115" t="s">
@@ -3560,7 +3556,7 @@
       <c r="A116" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" t="s">
         <v>240</v>
       </c>
       <c r="C116" t="s">
@@ -3571,7 +3567,7 @@
       <c r="A117" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" t="s">
         <v>242</v>
       </c>
       <c r="C117" t="s">
@@ -3582,7 +3578,7 @@
       <c r="A118" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" t="s">
         <v>244</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -4518,7 +4514,7 @@
       <c r="B199" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4587,7 +4583,7 @@
       <c r="B205" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4714,6 +4710,9 @@
       <c r="C216" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D216" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="217" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
@@ -4726,7 +4725,7 @@
         <v>5</v>
       </c>
       <c r="D217" t="s">
-        <v>598</v>
+        <v>106</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,6 +4804,9 @@
       <c r="C224" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="D224" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="225" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
@@ -5034,6 +5036,9 @@
       <c r="C244" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D244" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="245" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
@@ -5390,7 +5395,7 @@
       <c r="A275" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B275" s="8" t="s">
+      <c r="B275" t="s">
         <v>557</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -5404,7 +5409,7 @@
       <c r="A276" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B276" s="8" t="s">
+      <c r="B276" t="s">
         <v>559</v>
       </c>
       <c r="C276" t="s">
@@ -5495,7 +5500,7 @@
       <c r="A284" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B284" s="8" t="s">
+      <c r="B284" t="s">
         <v>575</v>
       </c>
       <c r="C284" t="s">
@@ -5506,7 +5511,7 @@
       <c r="A285" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B285" s="8" t="s">
+      <c r="B285" t="s">
         <v>577</v>
       </c>
       <c r="C285" t="s">
@@ -5517,10 +5522,10 @@
       <c r="A286" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" t="s">
         <v>579</v>
       </c>
-      <c r="C286" s="8" t="s">
+      <c r="C286" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5528,7 +5533,7 @@
       <c r="A287" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B287" s="8" t="s">
+      <c r="B287" t="s">
         <v>581</v>
       </c>
       <c r="C287" t="s">
@@ -5539,7 +5544,7 @@
       <c r="A288" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B288" t="s">
         <v>583</v>
       </c>
       <c r="C288" t="s">
